--- a/1-data/ebstein_plate_assay.xlsx
+++ b/1-data/ebstein_plate_assay.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pate212/GitHub/ebstein_mg/1-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garc286/RStudio/ebstein_mg/1-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044753D5-3B1C-F346-99AB-391ED9F95589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{642C82EC-767C-8844-AA87-8A8A498688FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5960" yWindow="2080" windowWidth="20040" windowHeight="15740" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5960" yWindow="2080" windowWidth="20040" windowHeight="15740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plate 1" sheetId="1" r:id="rId1"/>
@@ -1786,7 +1786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E31706-0129-454E-A693-FBF8AC404922}">
   <dimension ref="A2:O34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -3978,8 +3978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59323745-CDAF-784C-B69B-5C62E84DCC3A}">
   <dimension ref="A2:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:K25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
